--- a/Clean it up! Opossum/Assets/05 DB/StageDB.xlsx
+++ b/Clean it up! Opossum/Assets/05 DB/StageDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Clean-it-up-Opossum\Clean it up! Opossum\Assets\05 DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Clean-it-up-Opossum\Clean it up! Opossum\Assets\05 DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03628B7E-F99F-4496-9F85-72A1B134C9A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageDBEntities" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,11 +412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -443,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">

--- a/Clean it up! Opossum/Assets/05 DB/StageDB.xlsx
+++ b/Clean it up! Opossum/Assets/05 DB/StageDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Clean-it-up-Opossum\Clean it up! Opossum\Assets\05 DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03628B7E-F99F-4496-9F85-72A1B134C9A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AE3F1F-9914-412A-8C83-485BBE144599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -452,10 +452,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">

--- a/Clean it up! Opossum/Assets/05 DB/StageDB.xlsx
+++ b/Clean it up! Opossum/Assets/05 DB/StageDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Clean-it-up-Opossum\Clean it up! Opossum\Assets\05 DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AE3F1F-9914-412A-8C83-485BBE144599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECE4390-AA24-4665-8728-48D64B0DD5AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -496,10 +496,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">

--- a/Clean it up! Opossum/Assets/05 DB/StageDB.xlsx
+++ b/Clean it up! Opossum/Assets/05 DB/StageDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Clean-it-up-Opossum\Clean it up! Opossum\Assets\05 DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Clean-it-up-Opossum\Clean it up! Opossum\Assets\05 DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECE4390-AA24-4665-8728-48D64B0DD5AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4944"/>
   </bookViews>
   <sheets>
     <sheet name="StageDBEntities" sheetId="1" r:id="rId1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -130,6 +129,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -492,114 +494,54 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
